--- a/Documenten/Burndown chart sprint.xlsx
+++ b/Documenten/Burndown chart sprint.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil\Downloads\INFDEV02-1-PRCHK-RETAKE-master\New Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Desktop\Project-2-Game-Development\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Ideal </t>
   </si>
   <si>
-    <t>Day 16 - remaining hours</t>
-  </si>
-  <si>
     <t>Day 1 kickoff</t>
   </si>
   <si>
@@ -90,12 +87,15 @@
   </si>
   <si>
     <t>Work item 9.2</t>
+  </si>
+  <si>
+    <t>Day 6 - remaining hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -180,14 +180,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -196,7 +196,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -212,9 +212,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -286,7 +286,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9AB2-4FC4-BADA-E0B2C7A982E6}"/>
             </c:ext>
@@ -337,7 +337,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9AB2-4FC4-BADA-E0B2C7A982E6}"/>
             </c:ext>
@@ -352,11 +352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="120771672"/>
-        <c:axId val="120776152"/>
+        <c:axId val="226925400"/>
+        <c:axId val="226921872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120771672"/>
+        <c:axId val="226925400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120776152"/>
+        <c:crossAx val="226921872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -373,7 +373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120776152"/>
+        <c:axId val="226921872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,13 +384,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120771672"/>
+        <c:crossAx val="226925400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -425,7 +426,7 @@
         <xdr:cNvPr id="9" name="Grafiek 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,26 +772,26 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="4" max="4" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="5.9140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,33 +802,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -849,15 +850,15 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -878,15 +879,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -907,15 +908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -936,15 +937,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -965,15 +966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -994,15 +995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -1023,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>4</v>
       </c>
